--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.521300000000005</v>
+        <v>-7.4376</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.303299999999998</v>
+        <v>6.276499999999995</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.2219</v>
+        <v>-7.288400000000004</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.875299999999998</v>
+        <v>7.525199999999993</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.1265</v>
+        <v>9.321799999999994</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.484700000000007</v>
+        <v>-8.233600000000001</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.552100000000005</v>
+        <v>5.910300000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.646500000000001</v>
+        <v>-8.801999999999998</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.281899999999999</v>
+        <v>-7.354499999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.555600000000001</v>
+        <v>-7.625899999999994</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.326300000000002</v>
+        <v>-8.281599999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.958199999999996</v>
+        <v>-8.046999999999997</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.345099999999997</v>
+        <v>-8.636299999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1604,13 +1604,13 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.520599999999995</v>
+        <v>5.561599999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.207199999999998</v>
+        <v>-7.171799999999995</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.364199999999996</v>
+        <v>-7.445399999999996</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.397699999999999</v>
+        <v>5.251000000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.841</v>
+        <v>6.212600000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.545600000000002</v>
+        <v>-8.909499999999998</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.673499999999998</v>
+        <v>-7.566999999999995</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
